--- a/實驗記錄.xlsx
+++ b/實驗記錄.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\學校\專題\exp\20170926\exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxpay\Desktop\BME_Senior\EEG_CLF\Emotion\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="5868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="5865" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="資料情形" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="216">
   <si>
     <t>26:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,23 +136,599 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>09:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-2102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2102-2847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2847-3533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3533-4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001-4032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>11:05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:40</t>
+    <t>13:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(P7 break)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,666 +736,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>09:16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04:43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33:37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05:02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000-2102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2102-2847</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2847-3533</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3533-4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001-4032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26:54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32:41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(P7 break)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05:02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26:41(NO2.339)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +813,6 @@
   </si>
   <si>
     <t>26:04**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00:25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -965,7 +881,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1026,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,6 +958,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,6 +1058,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1167,6 +1110,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,183 +1305,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="5" width="19.109375" customWidth="1"/>
+    <col min="2" max="5" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1032911</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1032912</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1032915</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1032921</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>1032924</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>1032931</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>1032940</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1032943</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1032944</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>1032950</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>1032956</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1032957</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>1033306</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>1042933</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>1044432</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1536,21 +1496,21 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
         <v>1032912</v>
       </c>
@@ -1561,68 +1521,51 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1032915</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1032924</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1032931</v>
       </c>
@@ -1642,89 +1585,89 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1032940</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>1032943</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>1032950</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>1042933</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1044432</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1738,173 +1681,126 @@
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="1"/>
     <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
     <col min="13" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="14.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.46484375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.46484375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9.86328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="1" customWidth="1"/>
     <col min="22" max="22" width="9.33203125" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>1032915</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1032921</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1032924</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1032931</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -1934,224 +1830,224 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1032943</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>1032944</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>1032950</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>1032956</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1032957</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -2190,36 +2086,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1044432</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2230,28 +2126,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
         <v>1032911</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -2260,10 +2156,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1032912</v>
       </c>
@@ -2274,49 +2170,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1032921</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1032924</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1032931</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
@@ -2325,88 +2221,85 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>1032943</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>1032950</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1032957</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -2421,26 +2314,78 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1033306</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1044432</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="5">
+        <f>INT(B7/60)</f>
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:G14" si="0">INT(C7/60)</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="5">
+        <f>B7-(B14*60)</f>
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:G15" si="1">C7-(C14*60)</f>
+        <v>47</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
